--- a/99_その他/メトリック評価結果_第3反復.xlsx
+++ b/99_その他/メトリック評価結果_第3反復.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\git\Repitition2\99_その他\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5508D4-1FEE-40D7-BFE0-5086E81CB423}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9763B82-9917-48D6-86A5-2E35AA965E84}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="345" windowWidth="14190" windowHeight="10470" xr2:uid="{F824FE31-950A-4A00-8B55-1405DD74EA34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F824FE31-950A-4A00-8B55-1405DD74EA34}"/>
   </bookViews>
   <sheets>
     <sheet name="反復２" sheetId="1" r:id="rId1"/>
@@ -247,16 +247,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・Gameクラスのサイクロマチック数が7から14に増加した。</t>
-    <rPh sb="17" eb="18">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ゾウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・TurnクラスのLCOMが0.667から0.556に減少した。</t>
     <rPh sb="27" eb="29">
       <t>ゲンショウ</t>
@@ -366,6 +356,16 @@
     </rPh>
     <rPh sb="40" eb="41">
       <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Gameクラスのサイクロマチック数が7から16に増加した。</t>
+    <rPh sb="17" eb="18">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ゾウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -548,6 +548,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -557,26 +575,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690B41FC-A7D6-4455-9E1A-944FF1DAE2F6}">
   <dimension ref="B1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:K15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -912,17 +912,17 @@
     <row r="1" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
@@ -1147,7 +1147,7 @@
         <v>9</v>
       </c>
       <c r="M7" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.4">
@@ -1187,97 +1187,97 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="2:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="9" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="14" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="2:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="2:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E11:K11"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E13:K13"/>
     <mergeCell ref="E12:K12"/>
     <mergeCell ref="E14:K14"/>
     <mergeCell ref="E15:K15"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E1:M1"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E11:K11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1513,21 +1513,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1711,31 +1696,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7634EFA-5C65-4DE2-B201-E26FECE043E6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B784EE6-81CC-4911-92B3-E729EA3D454F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35DE2586-3769-48E0-B864-FD64FAF483BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1751,4 +1727,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B784EE6-81CC-4911-92B3-E729EA3D454F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7634EFA-5C65-4DE2-B201-E26FECE043E6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/99_その他/メトリック評価結果_第3反復.xlsx
+++ b/99_その他/メトリック評価結果_第3反復.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\git\Repitition2\99_その他\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9763B82-9917-48D6-86A5-2E35AA965E84}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ADD5DE-3377-4344-A0E6-49604FD958B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F824FE31-950A-4A00-8B55-1405DD74EA34}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
   <si>
     <t>NOF</t>
     <phoneticPr fontId="1"/>
@@ -247,13 +247,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・TurnクラスのLCOMが0.667から0.556に減少した。</t>
-    <rPh sb="27" eb="29">
-      <t>ゲンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・GameクラスのLCOMが0から0.6に増加した。</t>
     <rPh sb="21" eb="23">
       <t>ゾウカ</t>
@@ -331,31 +324,6 @@
     </rPh>
     <rPh sb="88" eb="90">
       <t>キョヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・Turnクラス自体には変更がないが、他のクラスの変更によって凝集性が上昇したと考えられる。</t>
-    <rPh sb="8" eb="10">
-      <t>ジタイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ギョウシュウセイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ジョウショウ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>カンガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -548,18 +516,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -575,8 +531,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690B41FC-A7D6-4455-9E1A-944FF1DAE2F6}">
-  <dimension ref="B1:M16"/>
+  <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:D14"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -912,17 +880,17 @@
     <row r="1" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
@@ -1187,97 +1155,79 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="2:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="2:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="2:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="9">
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="E14:K14"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E1:M1"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E11:K11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="E14:K14"/>
-    <mergeCell ref="E15:K15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1697,18 +1647,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1730,14 +1680,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B784EE6-81CC-4911-92B3-E729EA3D454F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7634EFA-5C65-4DE2-B201-E26FECE043E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -1751,4 +1693,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B784EE6-81CC-4911-92B3-E729EA3D454F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/99_その他/メトリック評価結果_第3反復.xlsx
+++ b/99_その他/メトリック評価結果_第3反復.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\git\Repitition2\99_その他\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ADD5DE-3377-4344-A0E6-49604FD958B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675F2294-4635-45CC-9E09-40881B21FE72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F824FE31-950A-4A00-8B55-1405DD74EA34}"/>
+    <workbookView xWindow="3585" yWindow="465" windowWidth="18435" windowHeight="10470" xr2:uid="{F824FE31-950A-4A00-8B55-1405DD74EA34}"/>
   </bookViews>
   <sheets>
     <sheet name="反復２" sheetId="1" r:id="rId1"/>
@@ -516,6 +516,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,20 +543,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,7 +862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690B41FC-A7D6-4455-9E1A-944FF1DAE2F6}">
   <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
@@ -880,17 +880,17 @@
     <row r="1" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
@@ -1155,79 +1155,79 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="13" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="2:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="14" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="2:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="15" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E11:K11"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E13:K13"/>
     <mergeCell ref="E12:K12"/>
     <mergeCell ref="E14:K14"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E1:M1"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E11:K11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1463,6 +1463,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1646,35 +1661,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35DE2586-3769-48E0-B864-FD64FAF483BF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B784EE6-81CC-4911-92B3-E729EA3D454F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1696,9 +1686,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B784EE6-81CC-4911-92B3-E729EA3D454F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35DE2586-3769-48E0-B864-FD64FAF483BF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>